--- a/output/inference_results/test_sheets/batch_005/test_sheet (50).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (50).xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1空腹血糖</t>
+          <t>空腹血糖</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
